--- a/project/LabExam/LabExam/wwwroot/excel/四川师范大学考试统计.xlsx
+++ b/project/LabExam/LabExam/wwwroot/excel/四川师范大学考试统计.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="56">
   <si>
     <t>编号</t>
   </si>
@@ -41,21 +41,33 @@
     <t>是否通过</t>
   </si>
   <si>
+    <t>2019110418</t>
+  </si>
+  <si>
+    <t>男</t>
+  </si>
+  <si>
+    <t>软件工程[本科生]</t>
+  </si>
+  <si>
+    <t>计算机科学学院</t>
+  </si>
+  <si>
+    <t>本科生</t>
+  </si>
+  <si>
+    <t>未通过</t>
+  </si>
+  <si>
     <t>2018010652</t>
   </si>
   <si>
-    <t>男</t>
-  </si>
-  <si>
     <t>汉语言文学[本科生]</t>
   </si>
   <si>
     <t>文学院</t>
   </si>
   <si>
-    <t>本科生</t>
-  </si>
-  <si>
     <t>通过</t>
   </si>
   <si>
@@ -69,6 +81,105 @@
   </si>
   <si>
     <t>研究生</t>
+  </si>
+  <si>
+    <t>2018060645</t>
+  </si>
+  <si>
+    <t>数学类[本科生]</t>
+  </si>
+  <si>
+    <t>数学与软件科学学院</t>
+  </si>
+  <si>
+    <t>2018060532</t>
+  </si>
+  <si>
+    <t>2018070417</t>
+  </si>
+  <si>
+    <t>物理学[本科生]</t>
+  </si>
+  <si>
+    <t>物理与电子工程学院</t>
+  </si>
+  <si>
+    <t>20171504006</t>
+  </si>
+  <si>
+    <t>细胞生物学[研究生]</t>
+  </si>
+  <si>
+    <t>生命科学学院</t>
+  </si>
+  <si>
+    <t>2018030309</t>
+  </si>
+  <si>
+    <t>日语[本科生]</t>
+  </si>
+  <si>
+    <t>外国语学院</t>
+  </si>
+  <si>
+    <t>2018031017</t>
+  </si>
+  <si>
+    <t>英语[本科生]</t>
+  </si>
+  <si>
+    <t>2018030209</t>
+  </si>
+  <si>
+    <t>法语[本科生]</t>
+  </si>
+  <si>
+    <t>2018050223</t>
+  </si>
+  <si>
+    <t>特殊教育[本科生]</t>
+  </si>
+  <si>
+    <t>教育科学学院</t>
+  </si>
+  <si>
+    <t>2018050512</t>
+  </si>
+  <si>
+    <t>学前教育[本科生]</t>
+  </si>
+  <si>
+    <t>2018040769</t>
+  </si>
+  <si>
+    <t>酒店管理[本科生]</t>
+  </si>
+  <si>
+    <t>历史文化与旅游学院</t>
+  </si>
+  <si>
+    <t>2018020443</t>
+  </si>
+  <si>
+    <t>法学[本科生]</t>
+  </si>
+  <si>
+    <t>法学院</t>
+  </si>
+  <si>
+    <t>20180391005</t>
+  </si>
+  <si>
+    <t>法律（法学）[研究生]</t>
+  </si>
+  <si>
+    <t>20180192018</t>
+  </si>
+  <si>
+    <t>学科教学（思政）[研究生]</t>
+  </si>
+  <si>
+    <t>马克思主义学院</t>
   </si>
 </sst>
 </file>
@@ -120,7 +231,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:I3"/>
+  <dimension ref="A1:I17"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -172,13 +283,13 @@
         <v>12</v>
       </c>
       <c r="F2" s="0">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="G2" s="0" t="s">
         <v>13</v>
       </c>
       <c r="H2" s="0">
-        <v>95</v>
+        <v>30</v>
       </c>
       <c r="I2" s="0" t="s">
         <v>14</v>
@@ -192,25 +303,431 @@
         <v>15</v>
       </c>
       <c r="C3" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" s="0" t="s">
         <v>16</v>
       </c>
-      <c r="D3" s="0" t="s">
+      <c r="E3" s="0" t="s">
         <v>17</v>
       </c>
-      <c r="E3" s="0" t="s">
+      <c r="F3" s="0">
+        <v>2018</v>
+      </c>
+      <c r="G3" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="H3" s="0">
+        <v>95</v>
+      </c>
+      <c r="I3" s="0" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="0">
+        <v>3</v>
+      </c>
+      <c r="B4" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="C4" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="D4" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="E4" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="F4" s="0">
+        <v>2018</v>
+      </c>
+      <c r="G4" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="H4" s="0">
+        <v>80</v>
+      </c>
+      <c r="I4" s="0" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="0">
+        <v>4</v>
+      </c>
+      <c r="B5" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="D5" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="E5" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="F5" s="0">
+        <v>2018</v>
+      </c>
+      <c r="G5" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="H5" s="0">
+        <v>69</v>
+      </c>
+      <c r="I5" s="0" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="0">
+        <v>5</v>
+      </c>
+      <c r="B6" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="C6" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="D6" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="E6" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="F6" s="0">
+        <v>2018</v>
+      </c>
+      <c r="G6" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="H6" s="0">
+        <v>22</v>
+      </c>
+      <c r="I6" s="0" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="0">
+        <v>6</v>
+      </c>
+      <c r="B7" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="C7" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="D7" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="E7" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="F7" s="0">
+        <v>2018</v>
+      </c>
+      <c r="G7" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="H7" s="0">
+        <v>75</v>
+      </c>
+      <c r="I7" s="0" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="0">
+        <v>7</v>
+      </c>
+      <c r="B8" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="C8" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="D8" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="E8" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="F8" s="0">
+        <v>2018</v>
+      </c>
+      <c r="G8" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="H8" s="0">
+        <v>80</v>
+      </c>
+      <c r="I8" s="0" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="0">
+        <v>8</v>
+      </c>
+      <c r="B9" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="C9" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="D9" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="E9" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="F9" s="0">
+        <v>2018</v>
+      </c>
+      <c r="G9" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="H9" s="0">
+        <v>65</v>
+      </c>
+      <c r="I9" s="0" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="0">
+        <v>9</v>
+      </c>
+      <c r="B10" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="C10" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="D10" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="E10" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="F10" s="0">
+        <v>2018</v>
+      </c>
+      <c r="G10" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="H10" s="0">
+        <v>42.5</v>
+      </c>
+      <c r="I10" s="0" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="0">
+        <v>10</v>
+      </c>
+      <c r="B11" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="C11" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="D11" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="E11" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="F11" s="0">
+        <v>2018</v>
+      </c>
+      <c r="G11" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="H11" s="0">
+        <v>82</v>
+      </c>
+      <c r="I11" s="0" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="0">
+        <v>11</v>
+      </c>
+      <c r="B12" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="C12" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="D12" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="E12" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="F12" s="0">
+        <v>2018</v>
+      </c>
+      <c r="G12" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="H12" s="0">
+        <v>87</v>
+      </c>
+      <c r="I12" s="0" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="0">
         <v>12</v>
       </c>
-      <c r="F3" s="0">
-        <v>2018</v>
-      </c>
-      <c r="G3" s="0" t="s">
-        <v>18</v>
-      </c>
-      <c r="H3" s="0">
-        <v>80</v>
-      </c>
-      <c r="I3" s="0" t="s">
+      <c r="B13" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="C13" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="D13" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="E13" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="F13" s="0">
+        <v>2018</v>
+      </c>
+      <c r="G13" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="H13" s="0">
+        <v>76</v>
+      </c>
+      <c r="I13" s="0" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="0">
+        <v>13</v>
+      </c>
+      <c r="B14" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="C14" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="D14" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="E14" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="F14" s="0">
+        <v>2018</v>
+      </c>
+      <c r="G14" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="H14" s="0">
+        <v>75</v>
+      </c>
+      <c r="I14" s="0" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="0">
         <v>14</v>
+      </c>
+      <c r="B15" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="C15" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="D15" s="0" t="s">
+        <v>49</v>
+      </c>
+      <c r="E15" s="0" t="s">
+        <v>50</v>
+      </c>
+      <c r="F15" s="0">
+        <v>2018</v>
+      </c>
+      <c r="G15" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="H15" s="0">
+        <v>79.5</v>
+      </c>
+      <c r="I15" s="0" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="0">
+        <v>15</v>
+      </c>
+      <c r="B16" s="0" t="s">
+        <v>51</v>
+      </c>
+      <c r="C16" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="D16" s="0" t="s">
+        <v>52</v>
+      </c>
+      <c r="E16" s="0" t="s">
+        <v>50</v>
+      </c>
+      <c r="F16" s="0">
+        <v>2018</v>
+      </c>
+      <c r="G16" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="H16" s="0">
+        <v>95</v>
+      </c>
+      <c r="I16" s="0" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="0">
+        <v>16</v>
+      </c>
+      <c r="B17" s="0" t="s">
+        <v>53</v>
+      </c>
+      <c r="C17" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="D17" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="E17" s="0" t="s">
+        <v>55</v>
+      </c>
+      <c r="F17" s="0">
+        <v>2018</v>
+      </c>
+      <c r="G17" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="H17" s="0">
+        <v>90</v>
+      </c>
+      <c r="I17" s="0" t="s">
+        <v>18</v>
       </c>
     </row>
   </sheetData>
